--- a/Result/check1/2025-03-05.xlsx
+++ b/Result/check1/2025-03-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS1"/>
+  <dimension ref="A1:AU1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,40 +621,50 @@
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
+          <t>營業毛利率</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>營業利益率</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>短增level</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>flag</t>
         </is>
